--- a/containers/openltablets_server/brms/content/content-approval-rules.xlsx
+++ b/containers/openltablets_server/brms/content/content-approval-rules.xlsx
@@ -44,7 +44,7 @@
 Deportes</t>
   </si>
   <si>
-    <t>20 .. 40</t>
+    <t>20 .. 120</t>
   </si>
   <si>
     <t>0</t>
@@ -3704,15 +3704,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="I4:J10"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
